--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>条件名称</t>
   </si>
@@ -530,14 +530,89 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成关卡1次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成关卡5次</t>
   </si>
   <si>
     <t>完成关卡10次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡1次</t>
+  </si>
+  <si>
+    <t>无伤完成关卡3次</t>
+  </si>
+  <si>
+    <t>无尽模式达到5000里程</t>
+  </si>
+  <si>
+    <t>无尽模式达到12000里程</t>
+  </si>
+  <si>
+    <t>无尽模式达到20000里程</t>
+  </si>
+  <si>
+    <t>进入密道1次</t>
+  </si>
+  <si>
+    <t>进入密道3次</t>
+  </si>
+  <si>
+    <t>进入密道5次</t>
+  </si>
+  <si>
+    <t>获得BUFF2次</t>
+  </si>
+  <si>
+    <t>获得BUFF5次</t>
+  </si>
+  <si>
+    <t>获得BUFF10次</t>
+  </si>
+  <si>
+    <t>获得金钱100</t>
+  </si>
+  <si>
+    <t>获得金钱500</t>
+  </si>
+  <si>
+    <t>获得金钱1000</t>
+  </si>
+  <si>
+    <t>获得道具2次</t>
+  </si>
+  <si>
+    <t>获得道具5次</t>
+  </si>
+  <si>
+    <t>获得道具10次</t>
+  </si>
+  <si>
+    <t>跳过3个障碍物</t>
+  </si>
+  <si>
+    <t>跳过6个障碍物</t>
+  </si>
+  <si>
+    <t>跳过10个障碍物</t>
+  </si>
+  <si>
+    <t>累计游戏时长1小时</t>
+  </si>
+  <si>
+    <t>addmoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addmoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addmoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡2次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1248,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1568,10 +1643,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
-        <v>10101</v>
+        <v>10001</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>41</v>
@@ -1580,17 +1655,17 @@
         <v>42</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
-        <v>10102</v>
+        <v>10002</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>43</v>
@@ -1606,7 +1681,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>10103</v>
@@ -1622,110 +1697,378 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="17">
+        <v>10004</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="17">
+        <v>10005</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="17">
+        <v>10007</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="17">
+        <v>10008</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="17">
+        <v>10009</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="17">
+        <v>10010</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="17">
+        <v>10011</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="17">
+        <v>11001</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="17">
+        <v>11002</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="17">
+        <v>11003</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="17">
+        <v>11004</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="19">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="17">
+        <v>11005</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="19">
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="17"/>
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>11006</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2">
+        <v>11007</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2">
+        <v>11008</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2">
+        <v>11009</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2">
+        <v>12001</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2">
+        <v>12002</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2">
+        <v>12003</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2">
+        <v>12004</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" s="17"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" s="17"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C44" s="17"/>
     </row>
   </sheetData>

--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView windowHeight="23620" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="14" r:id="rId1"/>
@@ -30,30 +25,17 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
 channel=0   是否区分渠道, 默认不区分
 repeat=1  表示字段id可以重复
 cpp=xxxx cpp生成的类名( 不填表示不生成 )
@@ -63,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0">
+    <comment ref="C6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -79,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,14 +70,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="2" shapeId="0">
+    <comment ref="G6" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -106,7 +85,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,14 +93,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="2" shapeId="0">
+    <comment ref="H6" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -131,7 +108,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -140,14 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="2" shapeId="0">
+    <comment ref="I6" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -156,7 +131,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -165,14 +139,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="3" shapeId="0">
+    <comment ref="B7" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">ID段:
@@ -184,14 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="2" shapeId="0">
+    <comment ref="C7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -200,7 +172,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -210,14 +181,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2" shapeId="0">
+    <comment ref="F7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>计数限制条件:</t>
@@ -226,7 +196,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,14 +206,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="2" shapeId="0">
+    <comment ref="G7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -253,7 +221,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -262,14 +229,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2" shapeId="0">
+    <comment ref="H7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -278,7 +244,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -294,14 +259,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="2" shapeId="0">
+    <comment ref="I7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -310,7 +274,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -326,14 +289,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2" shapeId="0">
+    <comment ref="J7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -342,7 +304,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -363,122 +324,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+  <si>
+    <t>xml=condition</t>
+  </si>
+  <si>
+    <t>key=Int,Id</t>
+  </si>
+  <si>
+    <t>cpp=Condition</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>conditiondefine</t>
+  </si>
+  <si>
+    <t>checktype</t>
+  </si>
+  <si>
+    <t>dynamiccondition</t>
+  </si>
+  <si>
+    <t>staticconditionList</t>
+  </si>
+  <si>
+    <t>csharp</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>条件名称</t>
   </si>
   <si>
+    <t>完成条件定义</t>
+  </si>
+  <si>
     <t>条件完成数值</t>
   </si>
   <si>
     <t>计数累计限制</t>
   </si>
   <si>
+    <t>清除计数条件定义</t>
+  </si>
+  <si>
+    <t>动态限制条件</t>
+  </si>
+  <si>
     <t>限制条件</t>
   </si>
   <si>
-    <t>key=Int,Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditiondefine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamiccondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>staticconditionList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态限制条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DoneType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DoneValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Clean</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DynamicConditionLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml=condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp=Condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成条件定义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除计数条件定义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100金币</t>
   </si>
   <si>
     <t>costmoney</t>
@@ -487,54 +422,40 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>累计消耗100金币</t>
+    <t>星级升级</t>
   </si>
   <si>
     <t>owngrade</t>
   </si>
   <si>
-    <t>星级升级</t>
-  </si>
-  <si>
     <t>段位升级</t>
   </si>
   <si>
     <t>累计消耗2000金币</t>
   </si>
   <si>
+    <t>累计在线1天</t>
+  </si>
+  <si>
     <t>totalsignin</t>
   </si>
   <si>
-    <t>累计在线1天</t>
-  </si>
-  <si>
     <t>累计在线4天</t>
   </si>
   <si>
     <t>累计在线7天</t>
   </si>
   <si>
+    <t>完成关卡2次</t>
+  </si>
+  <si>
     <t>fight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>完成关卡5次</t>
   </si>
   <si>
     <t>完成关卡10次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无伤完成关卡1次</t>
@@ -573,6 +494,9 @@
     <t>获得金钱100</t>
   </si>
   <si>
+    <t>addmoney</t>
+  </si>
+  <si>
     <t>获得金钱500</t>
   </si>
   <si>
@@ -598,29 +522,19 @@
   </si>
   <si>
     <t>累计游戏时长1小时</t>
-  </si>
-  <si>
-    <t>addmoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addmoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addmoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关卡2次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -631,49 +545,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -682,8 +559,171 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,13 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,8 +766,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -750,85 +976,375 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -841,6 +1357,13 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -851,112 +1374,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -972,21 +1390,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1315,785 +1730,785 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="22.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4"/>
+    <col min="5" max="5" width="10.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="16.8" spans="1:10">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="16.8" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="I7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
+      <c r="F8" s="15"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>85</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
+      <c r="F9" s="15"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>510</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
+      <c r="F10" s="15"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>2000</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
+      <c r="F11" s="15"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
+      <c r="F12" s="15"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
+      <c r="F13" s="15"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="F14" s="15"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
         <v>10001</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2">
+      <c r="B16" s="4">
+        <v>10002</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10103</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14">
+        <v>10004</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="14">
+        <v>10005</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="14">
+        <v>10006</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10002</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="14">
+        <v>10007</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10103</v>
-      </c>
-      <c r="C17" s="17" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="14">
+        <v>10008</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="17">
-        <v>10004</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="14">
+        <v>10009</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="17">
-        <v>10005</v>
-      </c>
-      <c r="C19" s="17" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14">
+        <v>10010</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="17">
-        <v>10006</v>
-      </c>
-      <c r="C20" s="17" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="14">
+        <v>10011</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="14">
+        <v>11001</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="17">
-        <v>10007</v>
-      </c>
-      <c r="C21" s="17" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14">
+        <v>11002</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="17">
-        <v>10008</v>
-      </c>
-      <c r="C22" s="17" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="14">
+        <v>11003</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="17">
-        <v>10009</v>
-      </c>
-      <c r="C23" s="17" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="14">
+        <v>11004</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="14">
+        <v>11005</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4">
+        <v>11006</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="4">
+        <v>11007</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="17">
-        <v>10010</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4">
+        <v>11008</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4">
+        <v>11009</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="4">
+        <v>12001</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="17">
-        <v>10011</v>
-      </c>
-      <c r="C25" s="17" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12002</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="17">
-        <v>11001</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="D36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4">
+        <v>12003</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="17">
-        <v>11002</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="D37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12004</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="17">
-        <v>11003</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="17">
-        <v>11004</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="17">
-        <v>11005</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="D38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="4">
         <v>60</v>
       </c>
-      <c r="B31" s="2">
-        <v>11006</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2">
-        <v>11007</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2">
-        <v>11008</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2">
-        <v>11009</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="2">
-        <v>12001</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2">
-        <v>12002</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2">
-        <v>12003</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12004</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="17"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A18:A65529">
-    <cfRule type="duplicateValues" dxfId="8" priority="28" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7 A6">
-    <cfRule type="duplicateValues" dxfId="7" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8 B10 B12 B14">
-    <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9 B11 B13">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B17">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B7 A6">
+    <cfRule type="duplicateValues" dxfId="1" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8 B10 B12 B14">
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9 B11 B13">
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23620" tabRatio="710"/>
+    <workbookView windowHeight="24260" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="14" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>xml=condition</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>获得BUFF2次</t>
+  </si>
+  <si>
+    <t>buffcount</t>
   </si>
   <si>
     <t>获得BUFF5次</t>
@@ -529,12 +532,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -554,12 +557,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -573,6 +570,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -580,8 +608,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +631,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,55 +655,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,22 +677,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,21 +698,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -722,8 +705,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,187 +759,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,17 +956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,21 +970,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,16 +990,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1009,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,11 +1039,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,155 +1058,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,28 +1216,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1267,15 +1243,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1739,752 +1706,751 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4"/>
-    <col min="5" max="5" width="10.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="3"/>
+    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.3076923076923" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.5384615384615" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.8" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="16.8" spans="1:10">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.8" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="16.8" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="16.8" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="13"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>85</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="13"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>510</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="13"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>2000</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="13"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="13"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="13"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="13"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>10001</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10002</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10103</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>10004</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>10005</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>10006</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>10007</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>10008</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>10009</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>10010</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>10011</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>11001</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="12">
+        <v>11002</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12">
+        <v>11003</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12">
+        <v>11004</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="12">
+        <v>11005</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3">
+        <v>11006</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3">
+        <v>11007</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="14">
-        <v>11002</v>
-      </c>
-      <c r="C27" s="14" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3">
+        <v>11008</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="14">
-        <v>11003</v>
-      </c>
-      <c r="C28" s="14" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="3">
+        <v>11009</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="14">
-        <v>11004</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="14">
-        <v>11005</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4">
-        <v>11006</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="4">
-        <v>11007</v>
-      </c>
-      <c r="C32" s="14" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3">
+        <v>12001</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="D35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3">
+        <v>12002</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3">
+        <v>12003</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3">
+        <v>12004</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3">
         <v>60</v>
       </c>
-      <c r="B33" s="4">
-        <v>11008</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="4">
-        <v>11009</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="4">
-        <v>12001</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="4">
-        <v>12002</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4">
-        <v>12003</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="4">
-        <v>12004</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="4">
-        <v>60</v>
-      </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="14"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="14"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="14"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="14"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="14"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="14"/>
+      <c r="C44" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:A65529">

--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="14" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,13 +30,14 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1">
+    <comment ref="C6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -60,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="2">
+    <comment ref="G6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -85,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,13 +103,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="2">
+    <comment ref="H6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -108,6 +119,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,13 +128,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="2">
+    <comment ref="I6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -131,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -139,13 +153,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="3">
+    <comment ref="B7" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">ID段:
@@ -157,13 +172,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="2">
+    <comment ref="C7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -172,6 +188,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,13 +198,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2">
+    <comment ref="F7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>计数限制条件:</t>
@@ -196,6 +214,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -206,13 +225,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="2">
+    <comment ref="G7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -221,6 +241,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -229,13 +250,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2">
+    <comment ref="H7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -244,6 +266,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -259,13 +282,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="2">
+    <comment ref="I7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -274,6 +298,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -289,13 +314,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2">
+    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -304,6 +330,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -324,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>xml=condition</t>
   </si>
@@ -449,9 +476,6 @@
     <t>完成关卡2次</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>完成关卡5次</t>
   </si>
   <si>
@@ -525,19 +549,44 @@
   </si>
   <si>
     <t>累计游戏时长1小时</t>
+  </si>
+  <si>
+    <t>finishlevel</t>
+  </si>
+  <si>
+    <t>finishlevelnodmg</t>
+  </si>
+  <si>
+    <t>scroe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrapath</t>
+  </si>
+  <si>
+    <t>getitem</t>
+  </si>
+  <si>
+    <t>jumppass</t>
+  </si>
+  <si>
+    <t>alive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -548,173 +597,45 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,13 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,182 +678,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -955,258 +702,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,63 +760,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1324,13 +781,6 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1341,7 +791,112 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1357,18 +912,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1697,19 +1255,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
@@ -1717,13 +1275,13 @@
     <col min="4" max="4" width="12.375" style="3"/>
     <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.3076923076923" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.5384615384615" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1299,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.8" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1769,7 +1327,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1355,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.8" spans="1:10">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1369,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" ht="16.8" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1383,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1906,9 +1464,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="13"/>
+      <c r="G8" s="3"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1925,9 +1484,10 @@
         <v>85</v>
       </c>
       <c r="F9" s="13"/>
+      <c r="G9" s="3"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1944,9 +1504,10 @@
         <v>510</v>
       </c>
       <c r="F10" s="13"/>
+      <c r="G10" s="3"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1963,9 +1524,10 @@
         <v>2000</v>
       </c>
       <c r="F11" s="13"/>
+      <c r="G11" s="3"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1982,9 +1544,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="13"/>
+      <c r="G12" s="3"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2001,9 +1564,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="13"/>
+      <c r="G13" s="3"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2020,9 +1584,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="13"/>
+      <c r="G14" s="3"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +1595,7 @@
         <v>10001</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>31</v>
@@ -2041,15 +1606,15 @@
       <c r="F15" s="13"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>10002</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>31</v>
@@ -2060,15 +1625,15 @@
       <c r="F16" s="13"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
-        <v>10103</v>
+        <v>10003</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>31</v>
@@ -2077,15 +1642,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="12">
         <v>10004</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>31</v>
@@ -2094,15 +1659,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="12">
         <v>10005</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>31</v>
@@ -2111,66 +1676,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="12">
         <v>10006</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="12">
         <v>10007</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="12">
         <v>10008</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="12">
         <v>10009</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>31</v>
@@ -2179,15 +1744,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="12">
         <v>10010</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>31</v>
@@ -2196,15 +1761,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="12">
         <v>10011</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>31</v>
@@ -2213,15 +1778,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="12">
         <v>11001</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>31</v>
@@ -2230,15 +1795,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="12">
         <v>11002</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>31</v>
@@ -2247,15 +1812,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="12">
         <v>11003</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>31</v>
@@ -2264,15 +1829,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="12">
         <v>11004</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>31</v>
@@ -2281,15 +1846,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="12">
         <v>11005</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>31</v>
@@ -2298,15 +1863,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3">
         <v>11006</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>31</v>
@@ -2315,15 +1880,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="3">
         <v>11007</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>31</v>
@@ -2332,15 +1897,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
         <v>11008</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>31</v>
@@ -2349,15 +1914,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3">
         <v>11009</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>31</v>
@@ -2366,15 +1931,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3">
         <v>12001</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>31</v>
@@ -2383,15 +1948,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3">
         <v>12002</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>31</v>
@@ -2400,15 +1965,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3">
         <v>12003</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>31</v>
@@ -2417,15 +1982,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3">
         <v>12004</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>31</v>
@@ -2434,47 +1999,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C44" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A18:A65529">
-    <cfRule type="duplicateValues" dxfId="0" priority="28" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 A6">
-    <cfRule type="duplicateValues" dxfId="1" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 B10 B12 B14">
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9 B11 B13">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -554,9 +554,6 @@
     <t>finishlevel</t>
   </si>
   <si>
-    <t>finishlevelnodmg</t>
-  </si>
-  <si>
     <t>scroe</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -579,6 +576,10 @@
   </si>
   <si>
     <t>alive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishnodmg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1265,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1650,7 +1651,7 @@
         <v>10004</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>31</v>
@@ -1667,7 +1668,7 @@
         <v>10005</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>31</v>
@@ -1684,7 +1685,7 @@
         <v>10006</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>31</v>
@@ -1701,7 +1702,7 @@
         <v>10007</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
@@ -1718,7 +1719,7 @@
         <v>10008</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>31</v>
@@ -1735,7 +1736,7 @@
         <v>10009</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>31</v>
@@ -1752,7 +1753,7 @@
         <v>10010</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>31</v>
@@ -1769,7 +1770,7 @@
         <v>10011</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>31</v>
@@ -1888,7 +1889,7 @@
         <v>11007</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>31</v>
@@ -1905,7 +1906,7 @@
         <v>11008</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>31</v>
@@ -1922,7 +1923,7 @@
         <v>11009</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>31</v>
@@ -1939,7 +1940,7 @@
         <v>12001</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>31</v>
@@ -1956,7 +1957,7 @@
         <v>12002</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>31</v>
@@ -1973,7 +1974,7 @@
         <v>12003</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>31</v>
@@ -1990,7 +1991,7 @@
         <v>12004</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>31</v>
@@ -2039,7 +2040,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>xml=condition</t>
   </si>
@@ -554,18 +554,6 @@
     <t>finishlevel</t>
   </si>
   <si>
-    <t>scroe</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>scroe</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>scroe</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>extrapath</t>
   </si>
   <si>
@@ -573,14 +561,16 @@
   </si>
   <si>
     <t>jumppass</t>
-  </si>
-  <si>
-    <t>alive</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>finishnodmg</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>todayscore</t>
+  </si>
+  <si>
+    <t>dayonlinetime</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1641,7 @@
         <v>10004</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>31</v>
@@ -1668,7 +1658,7 @@
         <v>10005</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>31</v>
@@ -1685,7 +1675,7 @@
         <v>10006</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>31</v>
@@ -1702,7 +1692,7 @@
         <v>10007</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
@@ -1719,7 +1709,7 @@
         <v>10008</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>31</v>
@@ -1736,7 +1726,7 @@
         <v>10009</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>31</v>
@@ -1753,7 +1743,7 @@
         <v>10010</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>31</v>
@@ -1770,7 +1760,7 @@
         <v>10011</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>31</v>
@@ -1889,7 +1879,7 @@
         <v>11007</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>31</v>
@@ -1906,7 +1896,7 @@
         <v>11008</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>31</v>
@@ -1923,7 +1913,7 @@
         <v>11009</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>31</v>
@@ -1940,7 +1930,7 @@
         <v>12001</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>31</v>
@@ -1957,7 +1947,7 @@
         <v>12002</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>31</v>
@@ -1974,7 +1964,7 @@
         <v>12003</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>31</v>
@@ -1991,13 +1981,13 @@
         <v>12004</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="3">
-        <v>60</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">

--- a/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>xml=condition</t>
   </si>
@@ -473,21 +473,9 @@
     <t>累计在线7天</t>
   </si>
   <si>
-    <t>完成关卡2次</t>
-  </si>
-  <si>
-    <t>完成关卡5次</t>
-  </si>
-  <si>
-    <t>完成关卡10次</t>
-  </si>
-  <si>
     <t>无伤完成关卡1次</t>
   </si>
   <si>
-    <t>无伤完成关卡3次</t>
-  </si>
-  <si>
     <t>无尽模式达到5000里程</t>
   </si>
   <si>
@@ -537,15 +525,6 @@
   </si>
   <si>
     <t>获得道具10次</t>
-  </si>
-  <si>
-    <t>跳过3个障碍物</t>
-  </si>
-  <si>
-    <t>跳过6个障碍物</t>
-  </si>
-  <si>
-    <t>跳过10个障碍物</t>
   </si>
   <si>
     <t>累计游戏时长1小时</t>
@@ -571,6 +550,38 @@
   </si>
   <si>
     <t>dayonlinetime</t>
+  </si>
+  <si>
+    <t>完成关卡1次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡2次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡3次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡3次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡2次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过1个障碍物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过2个障碍物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过3个障碍物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -759,7 +770,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -903,8 +924,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1252,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1580,85 +1601,85 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>10001</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3">
         <v>10002</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>10003</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B18" s="12">
         <v>10004</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12">
         <v>10005</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>31</v>
@@ -1669,64 +1690,64 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12">
         <v>10006</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="12">
         <v>10007</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="3">
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" s="12">
         <v>10008</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3">
-        <v>20000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="12">
         <v>10009</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>31</v>
@@ -1737,261 +1758,275 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12">
         <v>10010</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="12">
         <v>10011</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B26" s="12">
-        <v>11001</v>
+        <v>10012</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="3">
-        <v>2</v>
+      <c r="E26" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" s="12">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28" s="12">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" s="12">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="13">
-        <v>100</v>
+      <c r="E29" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" s="12">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="13">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="3">
-        <v>11006</v>
+        <v>53</v>
+      </c>
+      <c r="B31" s="12">
+        <v>11005</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="3">
-        <v>1000</v>
+      <c r="E31" s="13">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3">
+        <v>11008</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="3">
-        <v>11009</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="D34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3">
-        <v>12001</v>
+        <v>11009</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3">
+        <v>12003</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12004</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="3">
-        <v>12004</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" s="12"/>
@@ -2008,26 +2043,32 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C44" s="12"/>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A18:A65529">
-    <cfRule type="duplicateValues" dxfId="8" priority="28" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A18:A25 A27:A65530">
+    <cfRule type="duplicateValues" dxfId="9" priority="29" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B17">
-    <cfRule type="duplicateValues" dxfId="7" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 A6">
-    <cfRule type="duplicateValues" dxfId="6" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 B10 B12 B14">
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9 B11 B13">
     <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9 B11 B13">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
